--- a/data/orientations/orientations-holo_auxtel_v2.xlsx
+++ b/data/orientations/orientations-holo_auxtel_v2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moniez/Documents/LSST/Atmosphere/Hologramme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sylvie/MacOSX/GitHub/LSST/AuxTelComm/data/orientations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB746C00-27F3-DD48-ABA2-F795091B1E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28E899-4C54-C644-801A-5F732916648E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41920" yWindow="3540" windowWidth="32480" windowHeight="24040" xr2:uid="{2CE23C51-C155-A34A-B440-8B68DDC7ABF6}"/>
+    <workbookView xWindow="8480" yWindow="500" windowWidth="32480" windowHeight="21380" xr2:uid="{2CE23C51-C155-A34A-B440-8B68DDC7ABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0125FF-A916-E848-8E5A-1E536FF856F1}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1206,9 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" t="s">
         <v>14</v>
       </c>
@@ -1238,9 +1241,6 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B19">
         <v>1</v>
       </c>
@@ -2950,570 +2950,570 @@
         <v>-0.32155484184818572</v>
       </c>
     </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>266</v>
+      </c>
+      <c r="D43">
+        <v>101</v>
+      </c>
+      <c r="E43">
+        <v>302</v>
+      </c>
+      <c r="F43">
+        <v>3974</v>
+      </c>
+      <c r="G43">
+        <v>218</v>
+      </c>
+      <c r="H43">
+        <v>1824</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I50" si="18">D43</f>
+        <v>101</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J50" si="19">4096-C43</f>
+        <v>3830</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:K50" si="20">F43</f>
+        <v>3974</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:L50" si="21">4096-E43</f>
+        <v>3794</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M50" si="22">H43</f>
+        <v>1824</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N50" si="23">4096-G43</f>
+        <v>3878</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O50" si="24">K43-I43</f>
+        <v>3873</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:P50" si="25">L43-J43</f>
+        <v>-36</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" ref="Q43:Q50" si="26">ATAN2(O43,P43)</f>
+        <v>-9.2948523786883213E-3</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" ref="R43:R50" si="27">(G43-2048)*0.01</f>
+        <v>-18.3</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" ref="S43:S50" si="28">(H43-2048)*0.01</f>
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" ref="T43:T50" si="29">Q43*180/3.14159</f>
+        <v>-0.5325562623270057</v>
+      </c>
+    </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44">
-        <v>266</v>
+        <v>1540</v>
       </c>
       <c r="D44">
-        <v>101</v>
+        <v>746</v>
       </c>
       <c r="E44">
-        <v>302</v>
+        <v>1557</v>
       </c>
       <c r="F44">
-        <v>3974</v>
+        <v>3937</v>
       </c>
       <c r="G44">
-        <v>218</v>
+        <v>1348</v>
       </c>
       <c r="H44">
-        <v>1824</v>
+        <v>760</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44:I51" si="18">D44</f>
-        <v>101</v>
+        <f t="shared" si="18"/>
+        <v>746</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44:J51" si="19">4096-C44</f>
-        <v>3830</v>
+        <f t="shared" si="19"/>
+        <v>2556</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K51" si="20">F44</f>
-        <v>3974</v>
+        <f t="shared" si="20"/>
+        <v>3937</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:L51" si="21">4096-E44</f>
-        <v>3794</v>
+        <f t="shared" si="21"/>
+        <v>2539</v>
       </c>
       <c r="M44">
-        <f t="shared" ref="M44:M51" si="22">H44</f>
-        <v>1824</v>
+        <f t="shared" si="22"/>
+        <v>760</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N51" si="23">4096-G44</f>
-        <v>3878</v>
+        <f t="shared" si="23"/>
+        <v>2748</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:O51" si="24">K44-I44</f>
-        <v>3873</v>
+        <f t="shared" si="24"/>
+        <v>3191</v>
       </c>
       <c r="P44">
-        <f t="shared" ref="P44:P51" si="25">L44-J44</f>
-        <v>-36</v>
+        <f t="shared" si="25"/>
+        <v>-17</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" ref="Q44:Q51" si="26">ATAN2(O44,P44)</f>
-        <v>-9.2948523786883213E-3</v>
+        <f t="shared" si="26"/>
+        <v>-5.3274331466457991E-3</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" ref="R44:R51" si="27">(G44-2048)*0.01</f>
-        <v>-18.3</v>
+        <f t="shared" si="27"/>
+        <v>-7</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" ref="S44:S51" si="28">(H44-2048)*0.01</f>
-        <v>-2.2400000000000002</v>
+        <f t="shared" si="28"/>
+        <v>-12.88</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" ref="T44:T51" si="29">Q44*180/3.14159</f>
-        <v>-0.5325562623270057</v>
+        <f t="shared" si="29"/>
+        <v>-0.30523969276584273</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45">
-        <v>1540</v>
+        <v>2534</v>
       </c>
       <c r="D45">
-        <v>746</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>1557</v>
+        <v>2542</v>
       </c>
       <c r="F45">
-        <v>3937</v>
+        <v>3986</v>
       </c>
       <c r="G45">
-        <v>1348</v>
+        <v>2219</v>
       </c>
       <c r="H45">
-        <v>760</v>
+        <v>2282</v>
       </c>
       <c r="I45">
         <f t="shared" si="18"/>
-        <v>746</v>
+        <v>28</v>
       </c>
       <c r="J45">
         <f t="shared" si="19"/>
-        <v>2556</v>
+        <v>1562</v>
       </c>
       <c r="K45">
         <f t="shared" si="20"/>
-        <v>3937</v>
+        <v>3986</v>
       </c>
       <c r="L45">
         <f t="shared" si="21"/>
-        <v>2539</v>
+        <v>1554</v>
       </c>
       <c r="M45">
         <f t="shared" si="22"/>
-        <v>760</v>
+        <v>2282</v>
       </c>
       <c r="N45">
         <f t="shared" si="23"/>
-        <v>2748</v>
+        <v>1877</v>
       </c>
       <c r="O45">
         <f t="shared" si="24"/>
-        <v>3191</v>
+        <v>3958</v>
       </c>
       <c r="P45">
         <f t="shared" si="25"/>
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="26"/>
-        <v>-5.3274331466457991E-3</v>
+        <v>-2.0212200873628069E-3</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="27"/>
-        <v>-7</v>
+        <v>1.71</v>
       </c>
       <c r="S45" s="2">
         <f t="shared" si="28"/>
-        <v>-12.88</v>
+        <v>2.34</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="29"/>
-        <v>-0.30523969276584273</v>
+        <v>-0.11580747829134459</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46">
-        <v>2534</v>
+        <v>3180</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>2542</v>
+        <v>3185</v>
       </c>
       <c r="F46">
-        <v>3986</v>
+        <v>3993</v>
       </c>
       <c r="G46">
-        <v>2219</v>
+        <v>2797</v>
       </c>
       <c r="H46">
-        <v>2282</v>
+        <v>1269</v>
       </c>
       <c r="I46">
         <f t="shared" si="18"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f t="shared" si="19"/>
-        <v>1562</v>
+        <v>916</v>
       </c>
       <c r="K46">
         <f t="shared" si="20"/>
-        <v>3986</v>
+        <v>3993</v>
       </c>
       <c r="L46">
         <f t="shared" si="21"/>
-        <v>1554</v>
+        <v>911</v>
       </c>
       <c r="M46">
         <f t="shared" si="22"/>
-        <v>2282</v>
+        <v>1269</v>
       </c>
       <c r="N46">
         <f t="shared" si="23"/>
-        <v>1877</v>
+        <v>1299</v>
       </c>
       <c r="O46">
         <f t="shared" si="24"/>
-        <v>3958</v>
+        <v>3981</v>
       </c>
       <c r="P46">
         <f t="shared" si="25"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="26"/>
-        <v>-2.0212200873628069E-3</v>
+        <v>-1.255965177321991E-3</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="27"/>
-        <v>1.71</v>
+        <v>7.49</v>
       </c>
       <c r="S46" s="2">
         <f t="shared" si="28"/>
-        <v>2.34</v>
+        <v>-7.79</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="29"/>
-        <v>-0.11580747829134459</v>
+        <v>-7.1961564659283481E-2</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>3180</v>
+        <v>3540</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>3185</v>
+        <v>3540</v>
       </c>
       <c r="F47">
-        <v>3993</v>
+        <v>3922</v>
       </c>
       <c r="G47">
-        <v>2797</v>
+        <v>3092</v>
       </c>
       <c r="H47">
-        <v>1269</v>
+        <v>1554</v>
       </c>
       <c r="I47">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J47">
         <f t="shared" si="19"/>
-        <v>916</v>
+        <v>556</v>
       </c>
       <c r="K47">
         <f t="shared" si="20"/>
-        <v>3993</v>
+        <v>3922</v>
       </c>
       <c r="L47">
         <f t="shared" si="21"/>
-        <v>911</v>
+        <v>556</v>
       </c>
       <c r="M47">
         <f t="shared" si="22"/>
-        <v>1269</v>
+        <v>1554</v>
       </c>
       <c r="N47">
         <f t="shared" si="23"/>
-        <v>1299</v>
+        <v>1004</v>
       </c>
       <c r="O47">
         <f t="shared" si="24"/>
-        <v>3981</v>
+        <v>3894</v>
       </c>
       <c r="P47">
         <f t="shared" si="25"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="26"/>
-        <v>-1.255965177321991E-3</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="27"/>
-        <v>7.49</v>
+        <v>10.44</v>
       </c>
       <c r="S47" s="2">
         <f t="shared" si="28"/>
-        <v>-7.79</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" si="29"/>
-        <v>-7.1961564659283481E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>3540</v>
+        <v>3720</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>3540</v>
+        <v>3710</v>
       </c>
       <c r="F48">
-        <v>3922</v>
+        <v>3981</v>
       </c>
       <c r="G48">
-        <v>3092</v>
+        <v>3265</v>
       </c>
       <c r="H48">
-        <v>1554</v>
+        <v>2271</v>
       </c>
       <c r="I48">
         <f t="shared" si="18"/>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <f t="shared" si="19"/>
-        <v>556</v>
+        <v>376</v>
       </c>
       <c r="K48">
         <f t="shared" si="20"/>
-        <v>3922</v>
+        <v>3981</v>
       </c>
       <c r="L48">
         <f t="shared" si="21"/>
-        <v>556</v>
+        <v>386</v>
       </c>
       <c r="M48">
         <f t="shared" si="22"/>
-        <v>1554</v>
+        <v>2271</v>
       </c>
       <c r="N48">
         <f t="shared" si="23"/>
-        <v>1004</v>
+        <v>831</v>
       </c>
       <c r="O48">
         <f t="shared" si="24"/>
-        <v>3894</v>
+        <v>3936</v>
       </c>
       <c r="P48">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5406449399733326E-3</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="27"/>
-        <v>10.44</v>
+        <v>12.17</v>
       </c>
       <c r="S48" s="2">
         <f t="shared" si="28"/>
-        <v>-4.9400000000000004</v>
+        <v>2.23</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.14556835525806991</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49">
-        <v>3720</v>
+        <v>2515</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="E49">
-        <v>3710</v>
+        <v>2532</v>
       </c>
       <c r="F49">
-        <v>3981</v>
+        <v>3969</v>
       </c>
       <c r="G49">
-        <v>3265</v>
+        <v>2195</v>
       </c>
       <c r="H49">
-        <v>2271</v>
+        <v>485</v>
       </c>
       <c r="I49">
         <f t="shared" si="18"/>
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="J49">
         <f t="shared" si="19"/>
-        <v>376</v>
+        <v>1581</v>
       </c>
       <c r="K49">
         <f t="shared" si="20"/>
-        <v>3981</v>
+        <v>3969</v>
       </c>
       <c r="L49">
         <f t="shared" si="21"/>
-        <v>386</v>
+        <v>1564</v>
       </c>
       <c r="M49">
         <f t="shared" si="22"/>
-        <v>2271</v>
+        <v>485</v>
       </c>
       <c r="N49">
         <f t="shared" si="23"/>
-        <v>831</v>
+        <v>1901</v>
       </c>
       <c r="O49">
         <f t="shared" si="24"/>
-        <v>3936</v>
+        <v>3484</v>
       </c>
       <c r="P49">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>-17</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="26"/>
-        <v>2.5406449399733326E-3</v>
+        <v>-4.8794101848845936E-3</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="27"/>
-        <v>12.17</v>
+        <v>1.47</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="28"/>
-        <v>2.23</v>
+        <v>-15.63</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="29"/>
-        <v>0.14556835525806991</v>
+        <v>-0.27956984624958281</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50">
-        <v>2515</v>
+        <v>156</v>
       </c>
       <c r="D50">
-        <v>485</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>2532</v>
+        <v>199</v>
       </c>
       <c r="F50">
-        <v>3969</v>
+        <v>3985</v>
       </c>
       <c r="G50">
-        <v>2195</v>
+        <v>116</v>
       </c>
       <c r="H50">
-        <v>485</v>
+        <v>2309</v>
       </c>
       <c r="I50">
         <f t="shared" si="18"/>
-        <v>485</v>
+        <v>21</v>
       </c>
       <c r="J50">
         <f t="shared" si="19"/>
-        <v>1581</v>
+        <v>3940</v>
       </c>
       <c r="K50">
         <f t="shared" si="20"/>
-        <v>3969</v>
+        <v>3985</v>
       </c>
       <c r="L50">
         <f t="shared" si="21"/>
-        <v>1564</v>
+        <v>3897</v>
       </c>
       <c r="M50">
         <f t="shared" si="22"/>
-        <v>485</v>
+        <v>2309</v>
       </c>
       <c r="N50">
         <f t="shared" si="23"/>
-        <v>1901</v>
+        <v>3980</v>
       </c>
       <c r="O50">
         <f t="shared" si="24"/>
-        <v>3484</v>
+        <v>3964</v>
       </c>
       <c r="P50">
         <f t="shared" si="25"/>
-        <v>-17</v>
+        <v>-43</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="26"/>
-        <v>-4.8794101848845936E-3</v>
+        <v>-1.0847203204016696E-2</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="27"/>
-        <v>1.47</v>
+        <v>-19.32</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="28"/>
-        <v>-15.63</v>
+        <v>2.61</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.27956984624958281</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>119</v>
-      </c>
-      <c r="C51">
-        <v>156</v>
-      </c>
-      <c r="D51">
-        <v>21</v>
-      </c>
-      <c r="E51">
-        <v>199</v>
-      </c>
-      <c r="F51">
-        <v>3985</v>
-      </c>
-      <c r="G51">
-        <v>116</v>
-      </c>
-      <c r="H51">
-        <v>2309</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="18"/>
-        <v>21</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="19"/>
-        <v>3940</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="20"/>
-        <v>3985</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="21"/>
-        <v>3897</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="22"/>
-        <v>2309</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="23"/>
-        <v>3980</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="24"/>
-        <v>3964</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="25"/>
-        <v>-43</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="26"/>
-        <v>-1.0847203204016696E-2</v>
-      </c>
-      <c r="R51" s="2">
-        <f t="shared" si="27"/>
-        <v>-19.32</v>
-      </c>
-      <c r="S51" s="2">
-        <f t="shared" si="28"/>
-        <v>2.61</v>
-      </c>
-      <c r="T51" s="2">
         <f t="shared" si="29"/>
         <v>-0.62149948806910038</v>
       </c>
